--- a/medicine/Enfance/Isabelle_Rossignol/Isabelle_Rossignol.xlsx
+++ b/medicine/Enfance/Isabelle_Rossignol/Isabelle_Rossignol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Rossignol, née le 8 août 1965 à Neuilly-lès-Dijon, est une écrivaine française.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Rossignol a suivi des études de Lettres à Nice puis s'est installée à Paris[1]. Elle réalise des documentaires et écrit des fictions pour France-Culture[1]. Isabelle Rossignol est aussi formatrice et elle anime des ateliers d'écriture[1]. Elle est l'auteure en 2000 de L'invention des ateliers d'écriture en France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Rossignol a suivi des études de Lettres à Nice puis s'est installée à Paris. Elle réalise des documentaires et écrit des fictions pour France-Culture. Isabelle Rossignol est aussi formatrice et elle anime des ateliers d'écriture. Elle est l'auteure en 2000 de L'invention des ateliers d'écriture en France.
 Elle a publié plusieurs ouvrages pour adultes, notamment aux éditions du Rouergue, puis de nombreux romans jeunesse, essentiellement à L’École des loisirs, ainsi que la série jeunesse « SOS Sorcières » aux éditions Hatier.
-Ses romans pour adolescents se penchent sur des thèmes difficiles ou engagés : l'homosexualité dans F comme garçon publié en 2007, le chômage dans Les Placards sont vides en 2008, l'incarcération des parents, dans Des crapauds dans la bouche en 2008[2],[3], le décès d'un parent et le deuil, dans Il faut rester tranquille[4] en 2010, l'IVG dans J'ai décidé[5] en 2012, ou les premières expériences sexuelles et la pornographie dans Pour qui tu m'as prise ?[6] en 2014.
+Ses romans pour adolescents se penchent sur des thèmes difficiles ou engagés : l'homosexualité dans F comme garçon publié en 2007, le chômage dans Les Placards sont vides en 2008, l'incarcération des parents, dans Des crapauds dans la bouche en 2008 le décès d'un parent et le deuil, dans Il faut rester tranquille en 2010, l'IVG dans J'ai décidé en 2012, ou les premières expériences sexuelles et la pornographie dans Pour qui tu m'as prise ? en 2014.
 Depuis 2014 elle est aussi publiée par les éditions Talents Hauts.
 </t>
         </is>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages pour adultes
-Petites morts, coll. « La brune », éditions du Rouergue, 1998
+          <t>Ouvrages pour adultes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Petites morts, coll. « La brune », éditions du Rouergue, 1998
 Vomica, coll. « La brune », Rouergue, 1999
 L'invention des ateliers d'écriture en France, L'Harmattan, 2000
 Une nuit ordinaire : reconstitution en sept tableaux, coll. « La brune », Editions du Rouergue, 2001
@@ -560,9 +579,43 @@
 Sale linge, éditions Joëlle Losfeld, 2006 [présentation en ligne]
 Au-dessous du genou, éditions Joëlle Losfeld, 2008 [présentation en ligne]
 Collaboration
-Michèle Petit, De la bibliothèque au droit de cité : parcours de jeunes (avec Chantal Balley, Raymonde Ladefroux et Isabelle Rossignol), Editions de la BPI/Centre Georges Pompidou, 1997
-Ouvrages jeunesse
-Le Grand Jour, illustrations de Magali Bonniol, L'École des loisirs, 2004
+Michèle Petit, De la bibliothèque au droit de cité : parcours de jeunes (avec Chantal Balley, Raymonde Ladefroux et Isabelle Rossignol), Editions de la BPI/Centre Georges Pompidou, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Isabelle_Rossignol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isabelle_Rossignol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Grand Jour, illustrations de Magali Bonniol, L'École des loisirs, 2004
 Ma sœur a ses nerfs, L'École des loisirs, 2004
 Mes mathématiques intimes, L'École des Loisirs, 2005
 Les monstres du bord de mer, L'École des Loisirs, 2005
@@ -570,7 +623,7 @@
 Mamie Colette &amp; Co, L'École des loisirs, 2007
 F comme garçon, L'École des loisirs, 2007 - roman ado sur l'homosexualité
 Tête nue, L'École des loisirs, 2007
-Des crapauds dans la bouche[2],[3], L'École des loisirs, 2008 - roman jeunesse autour de la prison
+Des crapauds dans la bouche L'École des loisirs, 2008 - roman jeunesse autour de la prison
 L'Apprenti Amoureux, D-Lire n°119, 2008
 Les placards sont vides, L'École des loisirs, 2008 - roman ado autour du chômage
 SOS sorcière : Deux bisous ensorcelés, illustré par Julien Rosa, Hatier, 2008
@@ -581,17 +634,17 @@
 Myra, ma chienne à moi, illustré par Emmanuel Ristord ; narratrice, Nathalie Bienaimé, Bayard jeunesse, 2009 (livre-disque)
 SOS sorcière : La baguette farceuse, illustré par Julien Rosa, Hatier, 2009
 Le sourire de maman, illustrations d'Audrey Poussier, L'École des loisirs, 2010
-Il faut rester tranquille, L'École des loisirs, 2010 - roman jeunesse autour du décès d'un parent, et du deuil[4]
+Il faut rester tranquille, L'École des loisirs, 2010 - roman jeunesse autour du décès d'un parent, et du deuil
 SOS sorcière : Le sourire à malice, illustré par Julien Rosa, Hatier, 2010
 SOS sorcière : Un tour de balai, illustré par Julien Rosa, Hatier, 2011
 Elle est si gentille, l'École des loisirs, 2012
-J'ai décidé, collection « Tribal », Flammarion, 2012 - roman ado autour de l'IVG[5]
+J'ai décidé, collection « Tribal », Flammarion, 2012 - roman ado autour de l'IVG
 Pas à vendre !, L'École des loisirs, 2012 (théâtre jeunesse)
 Grève !, L'École des loisirs, 2013 (théâtre jeunesse)
 SOS sorcière : Le mystère du chaudron, illustré par Julien Rosa, Hatier, 2013
 Pour qui tu m'as prise ?, éditions Talents Hauts, 2014
 Myrtille, illustrations de Delphine Chedru, L'École des loisirs, 2015
-Les âmes vives[7], d'après un scénario de Christophe Petot, Talents hauts, 2018
+Les âmes vives, d'après un scénario de Christophe Petot, Talents hauts, 2018
 La guerre des jupes, avec Eva Roussel, Talents hauts, 2019</t>
         </is>
       </c>
